--- a/Runjan.xlsx
+++ b/Runjan.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sep-18" sheetId="2" r:id="rId1"/>
+    <sheet name="Oct-18" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>`</t>
   </si>
@@ -28,13 +29,31 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Internate</t>
+  </si>
+  <si>
+    <t>Swiggy</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Chicken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +61,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -59,13 +92,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -129,8 +190,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B15" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A2:B15"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Amount" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Description" dataDxfId="2"/>
+    <tableColumn id="2" name="Amount" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -401,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,74 +474,103 @@
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
@@ -562,4 +652,47 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Runjan.xlsx
+++ b/Runjan.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sep-18" sheetId="2" r:id="rId1"/>
     <sheet name="Oct-18" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>`</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>Chicken</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -463,7 +467,7 @@
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,8 +579,12 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1708</v>
+      </c>
       <c r="J17" t="s">
         <v>0</v>
       </c>
@@ -656,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +700,34 @@
         <v>590</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Runjan.xlsx
+++ b/Runjan.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sep-18" sheetId="2" r:id="rId1"/>
     <sheet name="Oct-18" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Nov-18" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>`</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Flight Ticket</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Bislery</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Uber</t>
   </si>
 </sst>
 </file>
@@ -715,17 +730,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3"/>
+  <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3">
         <v>5429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/Runjan.xlsx
+++ b/Runjan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>`</t>
   </si>
@@ -747,7 +747,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -831,6 +831,14 @@
         <v>150</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>7455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -838,10 +846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,6 +914,14 @@
         <v>150</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
